--- a/Python-Handy-Algorithm-Sheet.xlsx
+++ b/Python-Handy-Algorithm-Sheet.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\personalp\personalp$\093329\Home\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893AF525-7F8C-42B6-9F58-C71F2CB49F8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A987C463-D61E-4612-BCD7-2BE7D635B7A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$3</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -485,10 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -657,7 +663,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>